--- a/docs/assets/disciplinas/LOM3085.xlsx
+++ b/docs/assets/disciplinas/LOM3085.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,71 +70,55 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer os conhecimentos teóricos e práticos sobre estatística aplicada, materialografia e análises térmicas de materiais.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Programa resumido:</t>
   </si>
   <si>
     <t>5840963 - Daniela Camargo Vernilli</t>
   </si>
   <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
     <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>984972 - Hugo Ricardo Zschommler Sandim</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Técnicas de Materialografia. Calorimetria e análises térmicas de materiais.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. MATERIALOGRAFIA: Ensaio macrográfico ou macrografia; ensaio micrográfico ou micrografia. CORPO DE PROVA OU AMOSTRA. CORTE: discos de corte. Procedimento para o corte. EMBUTIMENTO: Preparação de corpo de prova: corpo de prova embutido a quente e a frio. Corpo de prova não embutido. LIXAMENTO: tipos de lixa; procedimento para o lixamento. POLIMENTO: processo mecânico; cuidados a serem observados no polimento. Processo semiautomático; processo eletrolítico; processo mecânico eletrolítico; polimento químico. Escolha do tipo de polimento. Procedimento para o polimento. ATAQUE QUÍMICO: princípio; métodos para obtenção de contraste. MICROSCOPIA ÓPTICA: Iluminação campo escuro; luz polarizada; contraste de fase; interferência diferencial. Partes de um microscópio óptico de reflexão; elementos mecânicos; elementos ópticos; iluminador; acessórios. Princípio da formação da imagem. Microscópio óptico de reflexão.
-2. CALORIMETRIA E ANÁLISES TÉRMICAS: Fundamentos termodinâmicos da calorimetria e análises térmicas. Princípios de calorimetria e tipos de calorímetros. Análise térmica diferencial (DTA) e calorimetria exploratória diferencial (DSC): princípios de DTA e DSC; tipos de equipamentos: DSC de compensação de energia e DSC de fluxo de calor. Aplicações de DTA e DSC. Equipamento: cadinhos de DTA; cadinhos de DSC. Cálculo de entalpia; linha base e cálculo de calor específico. Determinação de transição de fases. Determinação do diagrama de fases de ligas binárias por DTA/DSC. Cálculos cinéticos de cristalização, transições de fases e reações de polimerização. Termogravimetria (TGA): definição; aplicações da TGA. Equipamento: forno; programador de temperatura; termopar; balança; tipos de cadinho. Avaliação de estabilidade térmica e estudos de envelhecimento de polímeros. Técnicas de análises térmicas acopladas a análise de gases evolvidos por espectrometria de massa (TGA-MS) e FTIR (TGA-FTIR).</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas complementadas com experimentos desenvolvidos em laboratório didático; realização de relatórios para cada experimento e de estudo de casos.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética das notas obtidas nos relatórios e trabalhos. Será aprovado o aluno que obtiver nota final maior ou igual a 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Devido às características práticas da disciplina, não será oferecida recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>COLPAERT; HUBERTUS. Metalografia dos produtos siderúrgicos comuns, 3ª Edição, Editora Edgard Blücher Ltda, São Paulo – 1974.COUTINHO, TELMO DE AZEVEDO. Metalografia de Não-Ferrosos, Editora Edgard Blücher Ltda, São Paulo – 1980.PADILHA, A.F. Técnicas de Análise Microestrutural, Ed. Hemus, São Paulo, 1985.MURPHY, D. B. Fundamentals of Light Microscopy and Electronic Imaging, Wiley-Liss, 2001.WU, Q.; MERCHANT, F.; CASTLEMAN, K. Microscope Image Processing, Academic Press, 2008.AZEVEDO, A. D.; MOTHE, C. G. Análaise Térmica de Materiais. São Paulo: ARTLIBER, 2009.BROWN, M.E. Handbook of Thermal Analysis and Calorimetry, Amsterdam: Elsevier Science, 1998.HATAKEYAMA, T.; ZHENHAI, L. Handbook of Thermal Analysis, New York: Wiley, 1999.HAINES, P. J. Principles of Thermal Analysis and Calorimetry, Royal Society of Chemistry, 2002.MULLER, A. Solidificação e Análise Térmica dos Metais. Porto Alegre: Ed. UFRGS, 2002.SPEYER, R. Thermal analysis of materials, New York: Marcel Dekker, 1994.REED-HILL, R.E. Princípios de Metalurgia Física, Ed. Guanabara Dois, 1982. Nondestructive Characterization of Materials. Series. Plenum Press, New York. YACOBI, B.G.; HOLT, D.B.; KAZMERSKI, L.L. Eds. Microanalysis of Solids. Plenum Press, New York, 1994.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -497,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,135 +601,98 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="120" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
+      <c r="A16" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" customHeight="1">
-      <c r="A24" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="120" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3085.xlsx
+++ b/docs/assets/disciplinas/LOM3085.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,16 +70,31 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer os conhecimentos teóricos e práticos sobre estatística aplicada, materialografia e análises térmicas de materiais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
-    <t>Objectives:</t>
+    <t>5840963 - Daniela Camargo Vernilli</t>
+  </si>
+  <si>
+    <t>6495737 - Durval Rodrigues Junior</t>
+  </si>
+  <si>
+    <t>984972 - Hugo Ricardo Zschommler Sandim</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>5840963 - Daniela Camargo Vernilli</t>
+    <t>Técnicas de Materialografia. Calorimetria e análises térmicas de materiais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -88,7 +103,8 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>6495737 - Durval Rodrigues Junior</t>
+    <t>1. MATERIALOGRAFIA: Ensaio macrográfico ou macrografia; ensaio micrográfico ou micrografia. CORPO DE PROVA OU AMOSTRA. CORTE: discos de corte. Procedimento para o corte. EMBUTIMENTO: Preparação de corpo de prova: corpo de prova embutido a quente e a frio. Corpo de prova não embutido. LIXAMENTO: tipos de lixa; procedimento para o lixamento. POLIMENTO: processo mecânico; cuidados a serem observados no polimento. Processo semiautomático; processo eletrolítico; processo mecânico eletrolítico; polimento químico. Escolha do tipo de polimento. Procedimento para o polimento. ATAQUE QUÍMICO: princípio; métodos para obtenção de contraste. MICROSCOPIA ÓPTICA: Iluminação campo escuro; luz polarizada; contraste de fase; interferência diferencial. Partes de um microscópio óptico de reflexão; elementos mecânicos; elementos ópticos; iluminador; acessórios. Princípio da formação da imagem. Microscópio óptico de reflexão.
+2. CALORIMETRIA E ANÁLISES TÉRMICAS: Fundamentos termodinâmicos da calorimetria e análises térmicas. Princípios de calorimetria e tipos de calorímetros. Análise térmica diferencial (DTA) e calorimetria exploratória diferencial (DSC): princípios de DTA e DSC; tipos de equipamentos: DSC de compensação de energia e DSC de fluxo de calor. Aplicações de DTA e DSC. Equipamento: cadinhos de DTA; cadinhos de DSC. Cálculo de entalpia; linha base e cálculo de calor específico. Determinação de transição de fases. Determinação do diagrama de fases de ligas binárias por DTA/DSC. Cálculos cinéticos de cristalização, transições de fases e reações de polimerização. Termogravimetria (TGA): definição; aplicações da TGA. Equipamento: forno; programador de temperatura; termopar; balança; tipos de cadinho. Avaliação de estabilidade térmica e estudos de envelhecimento de polímeros. Técnicas de análises térmicas acopladas a análise de gases evolvidos por espectrometria de massa (TGA-MS) e FTIR (TGA-FTIR).</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -100,25 +116,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>984972 - Hugo Ricardo Zschommler Sandim</t>
+    <t>Aulas expositivas complementadas com experimentos desenvolvidos em laboratório didático; realização de relatórios para cada experimento e de estudo de casos.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas complementadas com experimentos desenvolvidos em laboratório didático; realização de relatórios para cada experimento e de estudo de casos.</t>
+    <t>Média aritmética das notas obtidas nos relatórios e trabalhos. Será aprovado o aluno que obtiver nota final maior ou igual a 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética das notas obtidas nos relatórios e trabalhos. Será aprovado o aluno que obtiver nota final maior ou igual a 5,0.</t>
+    <t>Devido às características práticas da disciplina, não será oferecida recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Devido às características práticas da disciplina, não será oferecida recuperação.</t>
+    <t>COLPAERT; HUBERTUS. Metalografia dos produtos siderúrgicos comuns, 3ª Edição, Editora Edgard Blücher Ltda, São Paulo – 1974.COUTINHO, TELMO DE AZEVEDO. Metalografia de Não-Ferrosos, Editora Edgard Blücher Ltda, São Paulo – 1980.PADILHA, A.F. Técnicas de Análise Microestrutural, Ed. Hemus, São Paulo, 1985.MURPHY, D. B. Fundamentals of Light Microscopy and Electronic Imaging, Wiley-Liss, 2001.WU, Q.; MERCHANT, F.; CASTLEMAN, K. Microscope Image Processing, Academic Press, 2008.AZEVEDO, A. D.; MOTHE, C. G. Análaise Térmica de Materiais. São Paulo: ARTLIBER, 2009.BROWN, M.E. Handbook of Thermal Analysis and Calorimetry, Amsterdam: Elsevier Science, 1998.HATAKEYAMA, T.; ZHENHAI, L. Handbook of Thermal Analysis, New York: Wiley, 1999.HAINES, P. J. Principles of Thermal Analysis and Calorimetry, Royal Society of Chemistry, 2002.MULLER, A. Solidificação e Análise Térmica dos Metais. Porto Alegre: Ed. UFRGS, 2002.SPEYER, R. Thermal analysis of materials, New York: Marcel Dekker, 1994.REED-HILL, R.E. Princípios de Metalurgia Física, Ed. Guanabara Dois, 1982. Nondestructive Characterization of Materials. Series. Plenum Press, New York. YACOBI, B.G.; HOLT, D.B.; KAZMERSKI, L.L. Eds. Microanalysis of Solids. Plenum Press, New York, 1994.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -481,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -601,98 +617,135 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="120" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
